--- a/Drive/public/Example File Add User with Excel.xlsx
+++ b/Drive/public/Example File Add User with Excel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Web Applications\Drive-Cloud\Drive\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7DDA964-FAE5-4D96-A99F-950638F56C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7D26A6-5E26-4C62-A0B7-9D77F654DB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{23D52712-D978-4C31-8A26-F5FE97EDEBFE}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>myoui mina</t>
-  </si>
-  <si>
-    <t>park jihyo</t>
-  </si>
-  <si>
-    <t>dahyunnie</t>
-  </si>
-  <si>
-    <t>momo chan</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -46,13 +34,43 @@
   </si>
   <si>
     <t>Username</t>
+  </si>
+  <si>
+    <t>Ruly Pahurian</t>
+  </si>
+  <si>
+    <t>Andika Arya Kusuma</t>
+  </si>
+  <si>
+    <t>Tiara Asa Welana</t>
+  </si>
+  <si>
+    <t>Arco Prima</t>
+  </si>
+  <si>
+    <t>Irwansyah</t>
+  </si>
+  <si>
+    <t>Arif Rahman Hakim</t>
+  </si>
+  <si>
+    <t>Raka Syahrul Haks</t>
+  </si>
+  <si>
+    <t>Aditya</t>
+  </si>
+  <si>
+    <t>Handoko</t>
+  </si>
+  <si>
+    <t>Ridho Akbar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +96,18 @@
       <b/>
       <sz val="12"/>
       <color theme="3"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -117,13 +147,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -444,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82B0DA17-2FE2-4B32-9CD3-1F862BF04C00}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" activeCellId="1" sqref="A2 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,58 +498,127 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2019210068</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2019210068</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2019210067</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2019210067</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2019210069</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2019210069</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2019210060</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>3321116502910</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3321116502910</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>3321116502914</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3321116502914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3321116502918</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1">
-        <v>3321116502918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3321116502915</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3321116502915</v>
-      </c>
+      <c r="C5" s="3">
+        <v>2019210060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>20192100681</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2019210071</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>20192100682</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2019210072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>20192100683</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2019210073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>20192100684</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2019210074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>20192100685</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>2019210075</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>20192100686</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3">
+        <v>2019210076</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
